--- a/files/DPA_Measurements.xlsx
+++ b/files/DPA_Measurements.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f9f047bd6f760809/Desktop/PHD Library/roadmap.github.io/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roadm\OneDrive\Desktop\PHD Library\roadmap.github.io\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="104" documentId="11_F25DC773A252ABDACC10486EA99E6C985ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FD63F89-32D1-49F1-B10D-9ED52659ECBB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4475E8-CCCA-49EC-8AC8-3E8A9BB26AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="285" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,9 +37,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>Mesurement Name</t>
-  </si>
-  <si>
     <t>Options</t>
   </si>
   <si>
@@ -113,6 +110,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Bisection search, Fast Gradient, Binary search, Minimum and Maximum search.</t>
+  </si>
+  <si>
+    <t>Measurement Name</t>
   </si>
 </sst>
 </file>
@@ -160,16 +160,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -189,10 +189,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -209,10 +209,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/namedSheetViews/namedSheetView1.xml><?xml version="1.0" encoding="utf-8"?>
-<namedSheetViews xmlns="http://schemas.microsoft.com/office/spreadsheetml/2019/namedsheetviews" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -484,7 +480,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:C13"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -494,147 +490,147 @@
     <col min="3" max="3" width="211.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="42" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:3" ht="42.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="B8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
